--- a/Fluc_salinity.xlsx
+++ b/Fluc_salinity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycecorbett/Shedd_Aquarium/Projects/Flucanozole_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{462C6630-9783-4744-9BD4-EF900AA8AA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA795C2-65BE-5F41-B33D-BCF37C236A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{61C4B887-F629-CA45-8786-32382E9D0E50}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Fluc_salinity" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Tripour ID</t>
   </si>
@@ -59,20 +59,71 @@
     <t>EggCrate ID</t>
   </si>
   <si>
-    <t>Tank #</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>PAM reading</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>8-8</t>
+  </si>
+  <si>
+    <t>8-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +135,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,13 +175,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79875C65-1672-2648-BB63-5825CB7DFAC9}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -450,434 +513,324 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="1">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="1">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="1">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="1">
-        <v>8</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="1">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="1">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="1">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="1">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="1">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="1">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
@@ -904,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
